--- a/biology/Zoologie/Plecia_lygaeoides/Plecia_lygaeoides.xlsx
+++ b/biology/Zoologie/Plecia_lygaeoides/Plecia_lygaeoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penthetria lygaeoides, Penthetria latipennis, Plecia acutiventris, Plecia guinieri, Protomyia lygaeoides, Protomyia latipennis, Bibio detractus
 Plecia lygaeoides est une espèce fossile de mouches (diptères) de la famille des Bibionidae et du genre Plecia.
@@ -514,22 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Descriptions initiales
-En 1849 l'espèce Protomyia livida est décrite par l'entomologiste allemand Oswald Heer[1],[2]. L'holotype SlJG 77465 de la collection Grätz vient de la localité de Radoboj en Croatie[3],[2]. Il décrit aussi l'espèce Protomyia latipennis des mêmes collection et provenance[4],[2].
-En 1937 les trois espèces Bibio detractus, Plecia acutiventris, Plecia guinieri sont décrites par Nicolas Théobald[5],[2]. 
-Citations
-En 1856 l'espèce Protomyia lygaeoides est citée par Oswald Heer[6],[2].
-En 1928 l'espèce Protomyia latipennis est citée par Alexander Pongrácz[7],[2].
-Renommage
-En 1891 l'entomologiste allemand Bruno Förster renomme l'espèce Protomyia lygaeoides en Plecia lygaeoides[8].
-En 1937 Nicolas Théobald confirme le renommage de Protomyia lygaeoides en Plecia lygaeoides en même temps qu'il décrit les trois autres espèces de Bibio et/ou Plecia[5].
-En 1994 Neal Evenhuis renomme l'espèce Protomyia lygaeoides (ou Plecia lygaeoides) en Penthetria lygaeoides ainsi que Protomyia latipennis en Penthetria latipennis[9].
-En 2017 John Skartveit et André Nel renomment Protomyia lygaeoides (ou Penthetria lygaeoides) en Plecia lygaeoides, en même temps que les quatre espèces sont déclarées synonymes (Plecia dtractus, Plecia acutiventris, Plecia guinieri, Plecia latipennis)[10],[2]. Ces renommages sont confirmés en 2020 par John Skartveit et Katarina Krizmanić[11],[2],[12].
-Fossiles
-Selon Paleobiology Database en 2023, dix collections comprenant quatorze fossiles sont référencées, toutes de l'Oligocène ou du Miocène de France ou de Croatie. Ces collections viennent de Céreste et d'Aix-en-Provence en France et de Radoboj en Croatie, dont l'une est conservée au muséum national d'histoire naturelle de Paris[13],[2].
-Étymologie
-L'épithète spécifique guinieri est un hommage au botaniste et forestier Philibert Guinier, entré professeur puis devenu directeur de l'École nationale des eaux et forêts de Nancy[14].
-Les épithètes spécifiques latines lygaeoides, detractus, latipennis, acutiventris signifient respectivement « lygaeoïde, tiré, à larges poils, à ventre pointu ».
+          <t>Descriptions initiales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1849 l'espèce Protomyia livida est décrite par l'entomologiste allemand Oswald Heer,. L'holotype SlJG 77465 de la collection Grätz vient de la localité de Radoboj en Croatie,. Il décrit aussi l'espèce Protomyia latipennis des mêmes collection et provenance,.
+En 1937 les trois espèces Bibio detractus, Plecia acutiventris, Plecia guinieri sont décrites par Nicolas Théobald,. 
 </t>
         </is>
       </c>
@@ -555,25 +559,254 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1856 l'espèce Protomyia lygaeoides est citée par Oswald Heer,.
+En 1928 l'espèce Protomyia latipennis est citée par Alexander Pongrácz,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1891 l'entomologiste allemand Bruno Förster renomme l'espèce Protomyia lygaeoides en Plecia lygaeoides.
+En 1937 Nicolas Théobald confirme le renommage de Protomyia lygaeoides en Plecia lygaeoides en même temps qu'il décrit les trois autres espèces de Bibio et/ou Plecia.
+En 1994 Neal Evenhuis renomme l'espèce Protomyia lygaeoides (ou Plecia lygaeoides) en Penthetria lygaeoides ainsi que Protomyia latipennis en Penthetria latipennis.
+En 2017 John Skartveit et André Nel renomment Protomyia lygaeoides (ou Penthetria lygaeoides) en Plecia lygaeoides, en même temps que les quatre espèces sont déclarées synonymes (Plecia dtractus, Plecia acutiventris, Plecia guinieri, Plecia latipennis),. Ces renommages sont confirmés en 2020 par John Skartveit et Katarina Krizmanić.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, dix collections comprenant quatorze fossiles sont référencées, toutes de l'Oligocène ou du Miocène de France ou de Croatie. Ces collections viennent de Céreste et d'Aix-en-Provence en France et de Radoboj en Croatie, dont l'une est conservée au muséum national d'histoire naturelle de Paris,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique guinieri est un hommage au botaniste et forestier Philibert Guinier, entré professeur puis devenu directeur de l'École nationale des eaux et forêts de Nancy.
+Les épithètes spécifiques latines lygaeoides, detractus, latipennis, acutiventris signifient respectivement « lygaeoïde, tiré, à larges poils, à ventre pointu ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[5],[note 1] :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] :
 Plecia guinieri : 
-« Insecte au corps massif ; tête et thorax noirs, abdomen brunâtre, les derniers segments plus foncés ; tibias brunâtres avec extrémités plus foncées ; ailes brunes atteignant à peine l'extrémité de l'abdomen. Tête petite, arrondie ; deux yeux non contigus, antennes courtes et cordiformes. Thorax un peu plus long que large, dépression en « U » bien marquée ; les hanches apparaissent par transparence. Abdomen plus large que le thorax ; longueur dépassant deux fois la largeur ; forme ovoïde, maximum de largeur dans la moitié antérieure. pattes assez fortes. Ailes bien conservées, presque trois fois aussi longues que larges ; nervation du type Plecia. »[14].
+« Insecte au corps massif ; tête et thorax noirs, abdomen brunâtre, les derniers segments plus foncés ; tibias brunâtres avec extrémités plus foncées ; ailes brunes atteignant à peine l'extrémité de l'abdomen. Tête petite, arrondie ; deux yeux non contigus, antennes courtes et cordiformes. Thorax un peu plus long que large, dépression en « U » bien marquée ; les hanches apparaissent par transparence. Abdomen plus large que le thorax ; longueur dépassant deux fois la largeur ; forme ovoïde, maximum de largeur dans la moitié antérieure. pattes assez fortes. Ailes bien conservées, presque trois fois aussi longues que larges ; nervation du type Plecia. ».
 Plecia acutiventris : 
-« Insecte de forme élancée ; tête et thorax noirs, abdomen brunâtre, ailes brunes, dépassant à peine l'abdomen. Tête un peu allongée ; deux gros yeux contigus ; antennes moins longues que la tête, articles homonomes. Thorax ovale, écrasé. Abdomen allongé, contracté vers l'arrière, huit segments, le dernier portant les organes génitaux ♂. Pattes assez fortes, un éperon au tibia I. Balanciers à longue tige, massue pyriforme. Ailes à sommet arrondi, nervation de Plecia. »[14].
-Dimensions
-Pour P. guinieri : la longueur du corps est de 7,25-9,5 mm ; les ailes ont une longueur de 7-7,75 mm[14].
-Pour P. acutiventris : la longueur du corps est de 7,75 mm ; la longueur de l’aile est de 5,75 mm[15].
-Affinités
+« Insecte de forme élancée ; tête et thorax noirs, abdomen brunâtre, ailes brunes, dépassant à peine l'abdomen. Tête un peu allongée ; deux gros yeux contigus ; antennes moins longues que la tête, articles homonomes. Thorax ovale, écrasé. Abdomen allongé, contracté vers l'arrière, huit segments, le dernier portant les organes génitaux ♂. Pattes assez fortes, un éperon au tibia I. Balanciers à longue tige, massue pyriforme. Ailes à sommet arrondi, nervation de Plecia. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour P. guinieri : la longueur du corps est de 7,25-9,5 mm ; les ailes ont une longueur de 7-7,75 mm.
+Pour P. acutiventris : la longueur du corps est de 7,75 mm ; la longueur de l’aile est de 5,75 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_lygaeoides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pour P. guinieri : 
-« À cette espèce appartient l'Insecte que nous avons déjà signalé à Aix sous le même nom. Mais il faut considérer comme type l'échantillon F256 de Céreste. Cette espèce est fréquente à Céreste. La fig. 13 de la pl. IX, montre une plaquette (F 190) groupant une dizaine d'individus. »[14].
+« À cette espèce appartient l'Insecte que nous avons déjà signalé à Aix sous le même nom. Mais il faut considérer comme type l'échantillon F256 de Céreste. Cette espèce est fréquente à Céreste. La fig. 13 de la pl. IX, montre une plaquette (F 190) groupant une dizaine d'individus. ».
 Pour P. acutiventris : 
-« Cette espèce  représente peut-être le ♂ de Plecia guineri. Elle est représentée aussi à Aix. »[15].
+« Cette espèce  représente peut-être le ♂ de Plecia guineri. Elle est représentée aussi à Aix. ».
 </t>
         </is>
       </c>
